--- a/yb_oled_data.xlsx
+++ b/yb_oled_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programms Files\YaDisk\Лаборатория\Литература\Публикации\Обзор на OLED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programms Files\YaDisk\Лаборатория\Литература\Публикации\Обзор на OLED\БД\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="486">
   <si>
     <t>2001</t>
   </si>
@@ -2766,9 +2766,6 @@
     <t xml:space="preserve">LiF/Al </t>
   </si>
   <si>
-    <t>Mott–Gurney Eq.</t>
-  </si>
-  <si>
     <r>
       <t>[Yb(dbm)</t>
     </r>
@@ -3583,6 +3580,9 @@
   </si>
   <si>
     <t>EIL_Cath, LUMO</t>
+  </si>
+  <si>
+    <t>Mott-Gurney Eq.</t>
   </si>
 </sst>
 </file>
@@ -4190,10 +4190,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4516,8 +4516,8 @@
   <dimension ref="A1:BY75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI13" sqref="BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4572,22 +4572,22 @@
         <v>120</v>
       </c>
       <c r="D1" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="95" t="s">
-        <v>243</v>
-      </c>
       <c r="F1" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="95" t="s">
-        <v>310</v>
-      </c>
       <c r="H1" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="95" t="s">
         <v>305</v>
-      </c>
-      <c r="I1" s="95" t="s">
-        <v>306</v>
       </c>
       <c r="J1" s="60" t="s">
         <v>125</v>
@@ -4599,16 +4599,16 @@
         <v>207</v>
       </c>
       <c r="M1" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="60" t="s">
-        <v>269</v>
-      </c>
       <c r="O1" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="P1" s="60" t="s">
         <v>464</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>465</v>
       </c>
       <c r="Q1" s="60" t="s">
         <v>122</v>
@@ -4617,19 +4617,19 @@
         <v>208</v>
       </c>
       <c r="S1" s="60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T1" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="U1" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="U1" s="60" t="s">
-        <v>271</v>
-      </c>
       <c r="V1" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="W1" s="60" t="s">
         <v>468</v>
-      </c>
-      <c r="W1" s="60" t="s">
-        <v>469</v>
       </c>
       <c r="X1" s="60" t="s">
         <v>117</v>
@@ -4638,7 +4638,7 @@
         <v>206</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA1" s="60" t="s">
         <v>211</v>
@@ -4647,10 +4647,10 @@
         <v>212</v>
       </c>
       <c r="AC1" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD1" s="60" t="s">
         <v>470</v>
-      </c>
-      <c r="AD1" s="60" t="s">
-        <v>471</v>
       </c>
       <c r="AE1" s="60" t="s">
         <v>124</v>
@@ -4662,49 +4662,49 @@
         <v>219</v>
       </c>
       <c r="AH1" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI1" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="AI1" s="61" t="s">
-        <v>278</v>
-      </c>
       <c r="AJ1" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK1" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="AK1" s="61" t="s">
-        <v>473</v>
-      </c>
       <c r="AL1" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM1" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="AN1" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="AO1" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP1" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="AQ1" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR1" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="AM1" s="62" t="s">
-        <v>476</v>
-      </c>
-      <c r="AN1" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="AO1" s="60" t="s">
+      <c r="AS1" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="AP1" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="AQ1" s="60" t="s">
+      <c r="AT1" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU1" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV1" s="60" t="s">
         <v>483</v>
-      </c>
-      <c r="AR1" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="AS1" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT1" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="AU1" s="60" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV1" s="60" t="s">
-        <v>484</v>
       </c>
       <c r="AW1" s="60" t="s">
         <v>128</v>
@@ -4716,10 +4716,10 @@
         <v>212</v>
       </c>
       <c r="AZ1" s="60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BA1" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BB1" s="60" t="s">
         <v>210</v>
@@ -4770,54 +4770,54 @@
         <v>213</v>
       </c>
       <c r="BR1" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="BS1" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="BS1" s="63" t="s">
+      <c r="BT1" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="BT1" s="63" t="s">
+      <c r="BU1" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="BU1" s="60" t="s">
-        <v>300</v>
-      </c>
       <c r="BV1" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BW1" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BX1" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="105" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="G2" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="H2" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="95" t="s">
+      <c r="I2" s="95" t="s">
         <v>313</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>314</v>
       </c>
       <c r="J2" s="85" t="s">
         <v>85</v>
@@ -4872,7 +4872,7 @@
         <v>0.05</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH2" s="3">
         <v>-5.3</v>
@@ -4901,7 +4901,7 @@
       <c r="AY2" s="85"/>
       <c r="AZ2" s="99"/>
       <c r="BA2" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB2" s="85">
         <v>5</v>
@@ -4939,34 +4939,34 @@
       <c r="BU2" s="44"/>
       <c r="BV2" s="86"/>
       <c r="BW2" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BX2" s="27"/>
       <c r="BY2" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="G3" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="H3" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G3" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>313</v>
-      </c>
-      <c r="I3" s="95" t="s">
-        <v>314</v>
       </c>
       <c r="J3" s="85" t="s">
         <v>85</v>
@@ -5008,7 +5008,7 @@
         <v>0.2</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
@@ -5030,7 +5030,7 @@
       <c r="AY3" s="85"/>
       <c r="AZ3" s="99"/>
       <c r="BA3" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB3" s="85">
         <v>5</v>
@@ -5068,7 +5068,7 @@
       <c r="BU3" s="44"/>
       <c r="BV3" s="86"/>
       <c r="BW3" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BX3" s="27"/>
     </row>
@@ -5076,23 +5076,23 @@
       <c r="A4" s="85">
         <v>2003</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="105" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="95" t="s">
+      <c r="H4" s="95" t="s">
         <v>312</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>313</v>
       </c>
       <c r="J4" s="85" t="s">
         <v>85</v>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="Y4" s="44"/>
       <c r="Z4" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA4" s="86"/>
       <c r="AB4" s="86"/>
@@ -5137,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
@@ -5159,7 +5159,7 @@
       <c r="AY4" s="85"/>
       <c r="AZ4" s="99"/>
       <c r="BA4" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB4" s="85">
         <v>5</v>
@@ -5188,10 +5188,10 @@
       <c r="BL4" s="86">
         <v>4</v>
       </c>
-      <c r="BM4" s="105">
+      <c r="BM4" s="104">
         <v>32</v>
       </c>
-      <c r="BN4" s="105">
+      <c r="BN4" s="104">
         <v>3.2</v>
       </c>
       <c r="BO4" s="86"/>
@@ -5203,30 +5203,30 @@
       <c r="BU4" s="44"/>
       <c r="BV4" s="86"/>
       <c r="BW4" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BX4" s="27"/>
       <c r="BY4" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="104">
+      <c r="A5" s="105">
         <v>2004</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="95" t="s">
+      <c r="H5" s="95" t="s">
         <v>312</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>313</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>85</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="Y5" s="44"/>
       <c r="Z5" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA5" s="86"/>
       <c r="AB5" s="86"/>
@@ -5271,7 +5271,7 @@
         <v>0.1</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
@@ -5293,7 +5293,7 @@
       <c r="AY5" s="85"/>
       <c r="AZ5" s="99"/>
       <c r="BA5" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB5" s="99">
         <v>5</v>
@@ -5316,8 +5316,8 @@
       <c r="BJ5" s="86"/>
       <c r="BK5" s="86"/>
       <c r="BL5" s="86"/>
-      <c r="BM5" s="105"/>
-      <c r="BN5" s="105"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
       <c r="BO5" s="86"/>
       <c r="BP5" s="86"/>
       <c r="BQ5" s="44"/>
@@ -5327,35 +5327,35 @@
       <c r="BU5" s="44"/>
       <c r="BV5" s="86"/>
       <c r="BW5" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX5" s="27"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E6" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="95" t="s">
+      <c r="G6" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="I6" s="95" t="s">
         <v>324</v>
-      </c>
-      <c r="H6" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>325</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>85</v>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="Y6" s="44"/>
       <c r="Z6" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA6" s="86"/>
       <c r="AB6" s="86"/>
@@ -5400,7 +5400,7 @@
         <v>0.05</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
@@ -5422,7 +5422,7 @@
       <c r="AY6" s="85"/>
       <c r="AZ6" s="99"/>
       <c r="BA6" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB6" s="99">
         <v>5</v>
@@ -5451,10 +5451,10 @@
       <c r="BL6" s="86">
         <v>6</v>
       </c>
-      <c r="BM6" s="105">
+      <c r="BM6" s="104">
         <v>43</v>
       </c>
-      <c r="BN6" s="105">
+      <c r="BN6" s="104">
         <v>3.4</v>
       </c>
       <c r="BO6" s="86"/>
@@ -5466,31 +5466,31 @@
       <c r="BU6" s="44"/>
       <c r="BV6" s="86"/>
       <c r="BW6" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX6" s="27"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="95" t="s">
+      <c r="G7" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="I7" s="95" t="s">
         <v>324</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>325</v>
       </c>
       <c r="J7" s="85" t="s">
         <v>85</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA7" s="86"/>
       <c r="AB7" s="86"/>
@@ -5535,7 +5535,7 @@
         <v>0.1</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
@@ -5557,7 +5557,7 @@
       <c r="AY7" s="85"/>
       <c r="AZ7" s="99"/>
       <c r="BA7" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB7" s="99">
         <v>5</v>
@@ -5586,8 +5586,8 @@
       <c r="BL7" s="86">
         <v>5</v>
       </c>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
+      <c r="BM7" s="104"/>
+      <c r="BN7" s="104"/>
       <c r="BO7" s="86"/>
       <c r="BP7" s="86"/>
       <c r="BQ7" s="44"/>
@@ -5597,31 +5597,31 @@
       <c r="BU7" s="44"/>
       <c r="BV7" s="86"/>
       <c r="BW7" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX7" s="27"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" s="95" t="s">
+      <c r="G8" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="I8" s="95" t="s">
         <v>324</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="95" t="s">
-        <v>325</v>
       </c>
       <c r="J8" s="85" t="s">
         <v>85</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="Y8" s="44"/>
       <c r="Z8" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA8" s="86"/>
       <c r="AB8" s="86"/>
@@ -5666,7 +5666,7 @@
         <v>0.15</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -5688,7 +5688,7 @@
       <c r="AY8" s="85"/>
       <c r="AZ8" s="99"/>
       <c r="BA8" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB8" s="99">
         <v>5</v>
@@ -5717,8 +5717,8 @@
       <c r="BL8" s="86">
         <v>5</v>
       </c>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
       <c r="BO8" s="86"/>
       <c r="BP8" s="86"/>
       <c r="BQ8" s="44"/>
@@ -5728,7 +5728,7 @@
       <c r="BU8" s="44"/>
       <c r="BV8" s="86"/>
       <c r="BW8" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BX8" s="27"/>
     </row>
@@ -5736,29 +5736,29 @@
       <c r="A9" s="86">
         <v>2000</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="104" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F9" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G9" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H9" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J9" s="86" t="s">
         <v>85</v>
@@ -5847,10 +5847,10 @@
       <c r="BL9" s="86">
         <v>15</v>
       </c>
-      <c r="BM9" s="105">
+      <c r="BM9" s="104">
         <v>12</v>
       </c>
-      <c r="BN9" s="105">
+      <c r="BN9" s="104">
         <v>1.41</v>
       </c>
       <c r="BO9" s="86"/>
@@ -5862,7 +5862,7 @@
       <c r="BU9" s="44"/>
       <c r="BV9" s="86"/>
       <c r="BW9" s="88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BX9" s="27"/>
     </row>
@@ -5870,25 +5870,25 @@
       <c r="A10" s="86">
         <v>2001</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F10" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H10" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I10" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>85</v>
@@ -5993,8 +5993,8 @@
       <c r="BL10" s="86">
         <v>4.5</v>
       </c>
-      <c r="BM10" s="105"/>
-      <c r="BN10" s="105"/>
+      <c r="BM10" s="104"/>
+      <c r="BN10" s="104"/>
       <c r="BO10" s="86"/>
       <c r="BP10" s="86"/>
       <c r="BQ10" s="44"/>
@@ -6004,7 +6004,7 @@
       <c r="BU10" s="44"/>
       <c r="BV10" s="86"/>
       <c r="BW10" s="88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BX10" s="27"/>
     </row>
@@ -6012,25 +6012,25 @@
       <c r="A11" s="86">
         <v>2001</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F11" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J11" s="86" t="s">
         <v>85</v>
@@ -6121,8 +6121,8 @@
       <c r="BL11" s="86">
         <v>9</v>
       </c>
-      <c r="BM11" s="105"/>
-      <c r="BN11" s="105"/>
+      <c r="BM11" s="104"/>
+      <c r="BN11" s="104"/>
       <c r="BO11" s="86"/>
       <c r="BP11" s="86"/>
       <c r="BQ11" s="44"/>
@@ -6132,37 +6132,37 @@
       <c r="BU11" s="44"/>
       <c r="BV11" s="86"/>
       <c r="BW11" s="88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BX11" s="79"/>
     </row>
     <row r="12" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104">
+      <c r="A12" s="105">
         <v>2012</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="H12" s="95" t="s">
-        <v>328</v>
-      </c>
       <c r="I12" s="95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J12" s="87" t="s">
         <v>85</v>
@@ -6285,18 +6285,18 @@
       <c r="BH12" s="87">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BI12" s="87" t="s">
-        <v>16</v>
+      <c r="BI12" s="87">
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="BJ12" s="87"/>
       <c r="BK12" s="87"/>
       <c r="BL12" s="86">
         <v>7</v>
       </c>
-      <c r="BM12" s="105">
+      <c r="BM12" s="104">
         <v>18</v>
       </c>
-      <c r="BN12" s="105" t="s">
+      <c r="BN12" s="104" t="s">
         <v>17</v>
       </c>
       <c r="BO12" s="86"/>
@@ -6308,31 +6308,31 @@
       <c r="BU12" s="44"/>
       <c r="BV12" s="86"/>
       <c r="BW12" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BX12" s="44"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="106"/>
       <c r="D13" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>328</v>
-      </c>
       <c r="I13" s="95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J13" s="87" t="s">
         <v>85</v>
@@ -6440,8 +6440,8 @@
       <c r="BL13" s="86">
         <v>6.3</v>
       </c>
-      <c r="BM13" s="105"/>
-      <c r="BN13" s="105"/>
+      <c r="BM13" s="104"/>
+      <c r="BN13" s="104"/>
       <c r="BO13" s="86"/>
       <c r="BP13" s="86"/>
       <c r="BQ13" s="44"/>
@@ -6451,12 +6451,12 @@
       <c r="BU13" s="44"/>
       <c r="BV13" s="86"/>
       <c r="BW13" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BX13" s="27"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="85" t="s">
         <v>19</v>
       </c>
@@ -6464,22 +6464,22 @@
         <v>20</v>
       </c>
       <c r="D14" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="F14" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="95" t="s">
         <v>331</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="I14" s="95" t="s">
-        <v>332</v>
       </c>
       <c r="J14" s="87" t="s">
         <v>85</v>
@@ -6613,12 +6613,12 @@
       <c r="BU14" s="44"/>
       <c r="BV14" s="86"/>
       <c r="BW14" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BX14" s="27"/>
     </row>
     <row r="15" spans="1:77" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="85" t="s">
         <v>23</v>
       </c>
@@ -6749,12 +6749,12 @@
       <c r="BU15" s="44"/>
       <c r="BV15" s="86"/>
       <c r="BW15" s="88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BX15" s="79"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="104">
+      <c r="A16" s="105">
         <v>2016</v>
       </c>
       <c r="B16" s="85" t="s">
@@ -6764,22 +6764,22 @@
         <v>157</v>
       </c>
       <c r="D16" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="95" t="s">
+      <c r="G16" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="95" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="95" t="s">
-        <v>336</v>
-      </c>
       <c r="I16" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J16" s="85" t="s">
         <v>85</v>
@@ -6954,16 +6954,16 @@
         <v>1.2400000000000001E-10</v>
       </c>
       <c r="BU16" s="77" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="BV16" s="76"/>
       <c r="BW16" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX16" s="27"/>
     </row>
     <row r="17" spans="1:77" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="85" t="s">
         <v>27</v>
       </c>
@@ -6971,22 +6971,22 @@
         <v>158</v>
       </c>
       <c r="D17" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="95" t="s">
-        <v>370</v>
-      </c>
-      <c r="F17" s="95" t="s">
+      <c r="G17" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="G17" s="95" t="s">
-        <v>374</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>336</v>
-      </c>
       <c r="I17" s="95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J17" s="85" t="s">
         <v>85</v>
@@ -7165,16 +7165,16 @@
         <v>3.2100000000000002E-6</v>
       </c>
       <c r="BU17" s="77" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="BV17" s="76"/>
       <c r="BW17" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX17" s="27"/>
     </row>
     <row r="18" spans="1:77" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="85" t="s">
         <v>28</v>
       </c>
@@ -7182,22 +7182,22 @@
         <v>159</v>
       </c>
       <c r="D18" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>370</v>
+      </c>
+      <c r="F18" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="95" t="s">
-        <v>371</v>
-      </c>
-      <c r="F18" s="95" t="s">
+      <c r="G18" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="G18" s="95" t="s">
-        <v>376</v>
-      </c>
-      <c r="H18" s="95" t="s">
-        <v>336</v>
-      </c>
       <c r="I18" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J18" s="85" t="s">
         <v>85</v>
@@ -7372,16 +7372,16 @@
         <v>2.69E-5</v>
       </c>
       <c r="BU18" s="77" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="BV18" s="76"/>
       <c r="BW18" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX18" s="27"/>
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="85" t="s">
         <v>29</v>
       </c>
@@ -7389,22 +7389,22 @@
         <v>160</v>
       </c>
       <c r="D19" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="95" t="s">
-        <v>372</v>
-      </c>
-      <c r="F19" s="95" t="s">
+      <c r="G19" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="I19" s="95" t="s">
         <v>377</v>
-      </c>
-      <c r="H19" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="I19" s="95" t="s">
-        <v>378</v>
       </c>
       <c r="J19" s="85" t="s">
         <v>85</v>
@@ -7579,11 +7579,11 @@
         <v>1.3E-7</v>
       </c>
       <c r="BU19" s="77" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="BV19" s="76"/>
       <c r="BW19" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX19" s="27"/>
     </row>
@@ -7598,22 +7598,22 @@
         <v>161</v>
       </c>
       <c r="D20" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="G20" s="95" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="95" t="s">
         <v>331</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="H20" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="I20" s="95" t="s">
-        <v>332</v>
       </c>
       <c r="J20" s="85" t="s">
         <v>85</v>
@@ -7788,43 +7788,43 @@
         <v>4.4999999999999999E-8</v>
       </c>
       <c r="BU20" s="77" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="BV20" s="76"/>
       <c r="BW20" s="88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BX20">
         <v>1458014</v>
       </c>
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="104">
+      <c r="A21" s="105">
         <v>2017</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="105" t="s">
-        <v>230</v>
+      <c r="C21" s="104" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" s="95" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="F21" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="95" t="s">
+      <c r="H21" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" s="95" t="s">
         <v>381</v>
-      </c>
-      <c r="H21" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="I21" s="95" t="s">
-        <v>382</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>85</v>
@@ -7992,31 +7992,31 @@
       <c r="BU21" s="44"/>
       <c r="BV21" s="86"/>
       <c r="BW21" s="88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BX21" s="27"/>
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" s="95" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" s="95" t="s">
+      <c r="H22" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" s="95" t="s">
         <v>381</v>
-      </c>
-      <c r="H22" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="I22" s="95" t="s">
-        <v>382</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>85</v>
@@ -8184,31 +8184,31 @@
       <c r="BU22" s="44"/>
       <c r="BV22" s="86"/>
       <c r="BW22" s="88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BX22" s="27"/>
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="95" t="s">
         <v>320</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>322</v>
-      </c>
-      <c r="H23" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="95" t="s">
-        <v>321</v>
       </c>
       <c r="J23" s="86" t="s">
         <v>85</v>
@@ -8356,7 +8356,7 @@
       <c r="BU23" s="44"/>
       <c r="BV23" s="86"/>
       <c r="BW23" s="88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BX23" s="27"/>
     </row>
@@ -8371,13 +8371,13 @@
         <v>163</v>
       </c>
       <c r="D24" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="H24" s="95" t="s">
         <v>383</v>
-      </c>
-      <c r="F24" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="H24" s="95" t="s">
-        <v>384</v>
       </c>
       <c r="J24" s="87" t="s">
         <v>85</v>
@@ -8531,7 +8531,7 @@
       <c r="BU24" s="44"/>
       <c r="BV24" s="86"/>
       <c r="BW24" s="88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BX24">
         <v>1001908</v>
@@ -8541,29 +8541,29 @@
       <c r="A25" s="85">
         <v>2021</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="104" t="s">
         <v>164</v>
       </c>
       <c r="D25" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="E25" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="G25" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H25" s="95" t="s">
-        <v>390</v>
-      </c>
       <c r="I25" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J25" s="86" t="s">
         <v>85</v>
@@ -8595,7 +8595,7 @@
         <v>35</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T25" s="76">
         <v>-5.8</v>
@@ -8690,18 +8690,18 @@
       </c>
       <c r="BG25" s="86"/>
       <c r="BH25" s="86"/>
-      <c r="BI25" s="104">
+      <c r="BI25" s="105">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="BJ25" s="85"/>
       <c r="BK25" s="85"/>
-      <c r="BL25" s="105">
+      <c r="BL25" s="104">
         <v>5</v>
       </c>
-      <c r="BM25" s="105">
+      <c r="BM25" s="104">
         <v>11</v>
       </c>
-      <c r="BN25" s="105">
+      <c r="BN25" s="104">
         <v>3.2</v>
       </c>
       <c r="BO25" s="86">
@@ -8719,33 +8719,33 @@
       <c r="BU25" s="44"/>
       <c r="BV25" s="86"/>
       <c r="BW25" s="88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BX25" s="27"/>
     </row>
     <row r="26" spans="1:77" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="104">
+      <c r="A26" s="105">
         <v>2021</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>390</v>
+      </c>
+      <c r="G26" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="H26" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="E26" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="F26" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="G26" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H26" s="95" t="s">
-        <v>390</v>
-      </c>
       <c r="I26" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J26" s="86" t="s">
         <v>85</v>
@@ -8754,7 +8754,7 @@
         <v>86</v>
       </c>
       <c r="L26" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" s="76">
         <v>-5.2</v>
@@ -8777,7 +8777,7 @@
         <v>35</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T26" s="76">
         <v>-5.8</v>
@@ -8874,12 +8874,12 @@
       <c r="BH26" s="87">
         <v>11</v>
       </c>
-      <c r="BI26" s="104"/>
+      <c r="BI26" s="105"/>
       <c r="BJ26" s="85"/>
       <c r="BK26" s="85"/>
-      <c r="BL26" s="105"/>
-      <c r="BM26" s="105"/>
-      <c r="BN26" s="105"/>
+      <c r="BL26" s="104"/>
+      <c r="BM26" s="104"/>
+      <c r="BN26" s="104"/>
       <c r="BO26" s="86">
         <v>-6.22</v>
       </c>
@@ -8895,17 +8895,17 @@
       <c r="BU26" s="44"/>
       <c r="BV26" s="86"/>
       <c r="BW26" s="88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BX26">
         <v>2041278</v>
       </c>
       <c r="BY26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:77" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="85" t="s">
         <v>41</v>
       </c>
@@ -8913,22 +8913,22 @@
         <v>165</v>
       </c>
       <c r="D27" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="E27" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="F27" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="G27" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H27" s="95" t="s">
-        <v>393</v>
-      </c>
       <c r="I27" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J27" s="86" t="s">
         <v>85</v>
@@ -8937,7 +8937,7 @@
         <v>86</v>
       </c>
       <c r="L27" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M27" s="76">
         <v>-5.2</v>
@@ -8960,7 +8960,7 @@
         <v>35</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T27" s="76">
         <v>-5.8</v>
@@ -9086,14 +9086,14 @@
       <c r="BU27" s="44"/>
       <c r="BV27" s="86"/>
       <c r="BW27" s="88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BX27">
         <v>2041279</v>
       </c>
     </row>
     <row r="28" spans="1:77" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="104">
+      <c r="A28" s="105">
         <v>2022</v>
       </c>
       <c r="B28" s="85" t="s">
@@ -9103,22 +9103,22 @@
         <v>166</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E28" s="95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F28" s="95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H28" s="89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I28" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J28" s="86" t="s">
         <v>85</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="BW28" s="88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BX28">
         <v>2098198</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="85" t="s">
         <v>44</v>
       </c>
@@ -9283,22 +9283,22 @@
         <v>167</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E29" s="95" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>394</v>
+      </c>
+      <c r="H29" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="I29" s="89" t="s">
         <v>396</v>
-      </c>
-      <c r="F29" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G29" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="H29" s="89" t="s">
-        <v>398</v>
-      </c>
-      <c r="I29" s="89" t="s">
-        <v>397</v>
       </c>
       <c r="J29" s="86" t="s">
         <v>85</v>
@@ -9448,14 +9448,14 @@
         <v>12</v>
       </c>
       <c r="BW29" s="88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BX29">
         <v>2098197</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="85" t="s">
         <v>45</v>
       </c>
@@ -9463,22 +9463,22 @@
         <v>168</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I30" s="95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J30" s="86" t="s">
         <v>85</v>
@@ -9628,14 +9628,14 @@
         <v>12</v>
       </c>
       <c r="BW30" s="88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BX30">
         <v>2098196</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="104">
+      <c r="A31" s="105">
         <v>2023</v>
       </c>
       <c r="B31" s="85" t="s">
@@ -9645,22 +9645,22 @@
         <v>169</v>
       </c>
       <c r="D31" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E31" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F31" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G31" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I31" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J31" s="86" t="s">
         <v>85</v>
@@ -9713,7 +9713,7 @@
         <v>40</v>
       </c>
       <c r="Z31" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA31" s="86"/>
       <c r="AB31" s="86"/>
@@ -9818,12 +9818,12 @@
         <v>12</v>
       </c>
       <c r="BW31" s="88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BX31" s="27"/>
     </row>
     <row r="32" spans="1:77" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="85" t="s">
         <v>48</v>
       </c>
@@ -9831,22 +9831,22 @@
         <v>170</v>
       </c>
       <c r="D32" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F32" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H32" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I32" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I32" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J32" s="86" t="s">
         <v>85</v>
@@ -9899,7 +9899,7 @@
         <v>40</v>
       </c>
       <c r="Z32" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA32" s="86"/>
       <c r="AB32" s="86"/>
@@ -10004,12 +10004,12 @@
         <v>12</v>
       </c>
       <c r="BW32" s="88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BX32" s="92"/>
     </row>
     <row r="33" spans="1:77" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="85" t="s">
         <v>49</v>
       </c>
@@ -10017,22 +10017,22 @@
         <v>171</v>
       </c>
       <c r="D33" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E33" s="95" t="s">
-        <v>304</v>
-      </c>
       <c r="F33" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G33" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H33" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="I33" s="95" t="s">
-        <v>308</v>
       </c>
       <c r="J33" s="86" t="s">
         <v>85</v>
@@ -10085,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="Z33" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA33" s="86"/>
       <c r="AB33" s="86"/>
@@ -10190,25 +10190,25 @@
         <v>12</v>
       </c>
       <c r="BW33" s="88" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BX33" s="92"/>
     </row>
     <row r="34" spans="1:77" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="104">
+      <c r="A34" s="105">
         <v>2024</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="104" t="s">
         <v>172</v>
       </c>
       <c r="D34" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="95" t="s">
         <v>240</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>241</v>
       </c>
       <c r="J34" s="86" t="s">
         <v>85</v>
@@ -10237,7 +10237,7 @@
         <v>131</v>
       </c>
       <c r="R34" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S34" s="44"/>
       <c r="T34" s="76">
@@ -10360,21 +10360,21 @@
         <v>8</v>
       </c>
       <c r="BW34" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BX34" s="93">
         <v>2298952</v>
       </c>
     </row>
     <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="95" t="s">
         <v>240</v>
-      </c>
-      <c r="E35" s="95" t="s">
-        <v>241</v>
       </c>
       <c r="J35" s="86" t="s">
         <v>85</v>
@@ -10520,14 +10520,14 @@
         <v>8</v>
       </c>
       <c r="BW35" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BX35" s="93">
         <v>2298952</v>
       </c>
     </row>
     <row r="36" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A36" s="104">
+      <c r="A36" s="105">
         <v>2011</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -10537,13 +10537,13 @@
         <v>175</v>
       </c>
       <c r="D36" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="F36" s="95" t="s">
+        <v>401</v>
+      </c>
+      <c r="H36" s="89" t="s">
         <v>400</v>
-      </c>
-      <c r="F36" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="H36" s="89" t="s">
-        <v>401</v>
       </c>
       <c r="J36" s="87" t="s">
         <v>85</v>
@@ -10647,15 +10647,15 @@
       <c r="BU36" s="44"/>
       <c r="BV36" s="86"/>
       <c r="BW36" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BX36" s="27"/>
       <c r="BY36" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="85" t="s">
         <v>217</v>
       </c>
@@ -10663,13 +10663,13 @@
         <v>176</v>
       </c>
       <c r="D37" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="F37" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="F37" s="95" t="s">
+      <c r="H37" s="89" t="s">
         <v>404</v>
-      </c>
-      <c r="H37" s="89" t="s">
-        <v>405</v>
       </c>
       <c r="J37" s="87" t="s">
         <v>85</v>
@@ -10773,11 +10773,11 @@
       <c r="BU37" s="44"/>
       <c r="BV37" s="86"/>
       <c r="BW37" s="88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BX37" s="27"/>
       <c r="BY37" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:77" x14ac:dyDescent="0.25">
@@ -10791,13 +10791,13 @@
         <v>173</v>
       </c>
       <c r="D38" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="H38" s="89" t="s">
         <v>406</v>
-      </c>
-      <c r="F38" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="H38" s="89" t="s">
-        <v>407</v>
       </c>
       <c r="J38" s="87" t="s">
         <v>85</v>
@@ -10935,7 +10935,7 @@
         <v>25</v>
       </c>
       <c r="BW38" s="88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BX38" s="27">
         <v>945670</v>
@@ -10952,13 +10952,13 @@
         <v>174</v>
       </c>
       <c r="D39" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="89" t="s">
         <v>409</v>
-      </c>
-      <c r="F39" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H39" s="89" t="s">
-        <v>410</v>
       </c>
       <c r="J39" s="87" t="s">
         <v>85</v>
@@ -11119,15 +11119,15 @@
       <c r="BU39" s="44"/>
       <c r="BV39" s="86"/>
       <c r="BW39" s="88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BX39" s="27"/>
       <c r="BY39" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A40" s="104">
+      <c r="A40" s="105">
         <v>2013</v>
       </c>
       <c r="B40" s="85" t="s">
@@ -11137,13 +11137,13 @@
         <v>177</v>
       </c>
       <c r="D40" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="F40" s="95" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" s="89" t="s">
         <v>411</v>
-      </c>
-      <c r="F40" s="95" t="s">
-        <v>413</v>
-      </c>
-      <c r="H40" s="89" t="s">
-        <v>412</v>
       </c>
       <c r="J40" s="87" t="s">
         <v>85</v>
@@ -11247,12 +11247,12 @@
       <c r="BU40" s="44"/>
       <c r="BV40" s="86"/>
       <c r="BW40" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BX40" s="27"/>
     </row>
     <row r="41" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="85" t="s">
         <v>58</v>
       </c>
@@ -11260,13 +11260,13 @@
         <v>178</v>
       </c>
       <c r="D41" s="96" t="s">
+        <v>413</v>
+      </c>
+      <c r="F41" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="H41" s="89" t="s">
         <v>414</v>
-      </c>
-      <c r="F41" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="H41" s="89" t="s">
-        <v>415</v>
       </c>
       <c r="J41" s="87" t="s">
         <v>85</v>
@@ -11370,12 +11370,12 @@
       <c r="BU41" s="44"/>
       <c r="BV41" s="86"/>
       <c r="BW41" s="88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BX41" s="27"/>
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A42" s="104">
+      <c r="A42" s="105">
         <v>2014</v>
       </c>
       <c r="B42" s="85" t="s">
@@ -11385,13 +11385,13 @@
         <v>179</v>
       </c>
       <c r="D42" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F42" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H42" s="89" t="s">
         <v>417</v>
-      </c>
-      <c r="F42" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H42" s="89" t="s">
-        <v>418</v>
       </c>
       <c r="J42" s="87" t="s">
         <v>85</v>
@@ -11523,15 +11523,15 @@
       <c r="BU42" s="77"/>
       <c r="BV42" s="76"/>
       <c r="BW42" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BX42" s="27"/>
       <c r="BY42" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="85" t="s">
         <v>60</v>
       </c>
@@ -11539,13 +11539,13 @@
         <v>180</v>
       </c>
       <c r="D43" s="96" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="89" t="s">
         <v>419</v>
-      </c>
-      <c r="F43" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H43" s="89" t="s">
-        <v>420</v>
       </c>
       <c r="J43" s="87" t="s">
         <v>85</v>
@@ -11677,7 +11677,7 @@
       <c r="BU43" s="77"/>
       <c r="BV43" s="76"/>
       <c r="BW43" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BX43" s="27"/>
     </row>
@@ -11692,22 +11692,22 @@
         <v>181</v>
       </c>
       <c r="D44" s="97" t="s">
+        <v>420</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="E44" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="F44" s="89" t="s">
+      <c r="G44" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="H44" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="G44" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H44" s="89" t="s">
-        <v>423</v>
-      </c>
       <c r="I44" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J44" s="87" t="s">
         <v>85</v>
@@ -11797,15 +11797,15 @@
       <c r="BU44" s="44"/>
       <c r="BV44" s="86"/>
       <c r="BW44" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BX44" s="27"/>
       <c r="BY44" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A45" s="104">
+      <c r="A45" s="105">
         <v>2017</v>
       </c>
       <c r="B45" s="85" t="s">
@@ -11815,13 +11815,13 @@
         <v>182</v>
       </c>
       <c r="D45" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="F45" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="89" t="s">
         <v>424</v>
-      </c>
-      <c r="F45" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H45" s="89" t="s">
-        <v>425</v>
       </c>
       <c r="J45" s="87" t="s">
         <v>85</v>
@@ -11925,14 +11925,14 @@
       <c r="BU45" s="44"/>
       <c r="BV45" s="86"/>
       <c r="BW45" s="88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BX45" s="52">
         <v>1484642</v>
       </c>
     </row>
     <row r="46" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="85" t="s">
         <v>63</v>
       </c>
@@ -11940,13 +11940,13 @@
         <v>183</v>
       </c>
       <c r="D46" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="89" t="s">
         <v>426</v>
-      </c>
-      <c r="F46" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H46" s="89" t="s">
-        <v>427</v>
       </c>
       <c r="J46" s="87" t="s">
         <v>85</v>
@@ -12050,14 +12050,14 @@
       <c r="BU46" s="44"/>
       <c r="BV46" s="86"/>
       <c r="BW46" s="88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BX46" s="27">
         <v>1484641</v>
       </c>
     </row>
     <row r="47" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="104">
+      <c r="A47" s="105">
         <v>2016</v>
       </c>
       <c r="B47" s="85" t="s">
@@ -12067,15 +12067,15 @@
         <v>184</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E47" s="95"/>
       <c r="F47" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G47" s="95"/>
       <c r="H47" s="89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I47" s="95"/>
       <c r="J47" s="86" t="s">
@@ -12130,16 +12130,16 @@
       <c r="AE47" s="44"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="12">
-        <f>AA47-AT47</f>
+        <f t="shared" ref="AJ47:AK49" si="27">AA47-AT47</f>
         <v>2.5339999999999998</v>
       </c>
       <c r="AK47" s="12">
-        <f>AB47-AU47</f>
+        <f t="shared" si="27"/>
         <v>0.23100000000000032</v>
       </c>
       <c r="AL47" s="56"/>
@@ -12194,7 +12194,7 @@
         <v>-2.4689999999999999</v>
       </c>
       <c r="BQ47" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BR47" s="64"/>
       <c r="BS47" s="64"/>
@@ -12202,14 +12202,14 @@
       <c r="BU47" s="44"/>
       <c r="BV47" s="86"/>
       <c r="BW47" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BX47" s="82">
         <v>1472262</v>
       </c>
     </row>
     <row r="48" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="85" t="s">
         <v>64</v>
       </c>
@@ -12217,15 +12217,15 @@
         <v>184</v>
       </c>
       <c r="D48" s="96" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E48" s="95"/>
       <c r="F48" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G48" s="95"/>
       <c r="H48" s="89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I48" s="95"/>
       <c r="J48" s="86" t="s">
@@ -12280,16 +12280,16 @@
       <c r="AE48" s="44"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="12">
-        <f>AA48-AT48</f>
+        <f t="shared" si="27"/>
         <v>2.0339999999999998</v>
       </c>
       <c r="AK48" s="12">
-        <f>AB48-AU48</f>
+        <f t="shared" si="27"/>
         <v>0.23100000000000032</v>
       </c>
       <c r="AL48" s="56"/>
@@ -12344,7 +12344,7 @@
         <v>-2.4689999999999999</v>
       </c>
       <c r="BQ48" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BR48" s="64"/>
       <c r="BS48" s="64"/>
@@ -12352,14 +12352,14 @@
       <c r="BU48" s="44"/>
       <c r="BV48" s="86"/>
       <c r="BW48" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BX48" s="82">
         <v>1472262</v>
       </c>
     </row>
     <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="85" t="s">
         <v>64</v>
       </c>
@@ -12367,13 +12367,13 @@
         <v>184</v>
       </c>
       <c r="D49" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="F49" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="F49" s="89" t="s">
-        <v>430</v>
-      </c>
       <c r="H49" s="89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J49" s="86" t="s">
         <v>85</v>
@@ -12427,16 +12427,16 @@
       <c r="AE49" s="44"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="12">
-        <f>AA49-AT49</f>
+        <f t="shared" si="27"/>
         <v>2.0339999999999998</v>
       </c>
       <c r="AK49" s="12">
-        <f>AB49-AU49</f>
+        <f t="shared" si="27"/>
         <v>0.23100000000000032</v>
       </c>
       <c r="AL49" s="56"/>
@@ -12467,7 +12467,7 @@
         <v>0.2799999999999998</v>
       </c>
       <c r="BA49" s="99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB49" s="99">
         <v>5</v>
@@ -12507,7 +12507,7 @@
         <v>-2.4689999999999999</v>
       </c>
       <c r="BQ49" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BR49" s="64"/>
       <c r="BS49" s="64"/>
@@ -12515,7 +12515,7 @@
       <c r="BU49" s="44"/>
       <c r="BV49" s="86"/>
       <c r="BW49" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BX49" s="27">
         <v>1472262</v>
@@ -12532,13 +12532,13 @@
         <v>185</v>
       </c>
       <c r="D50" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="F50" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="89" t="s">
         <v>431</v>
-      </c>
-      <c r="F50" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H50" s="89" t="s">
-        <v>432</v>
       </c>
       <c r="J50" s="86" t="s">
         <v>85</v>
@@ -12556,11 +12556,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O50" s="102">
-        <f t="shared" ref="O50:O65" si="27">M50-T50</f>
+        <f t="shared" ref="O50:O65" si="28">M50-T50</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="P50" s="102">
-        <f t="shared" ref="P50:P65" si="28">N50-U50</f>
+        <f t="shared" ref="P50:P65" si="29">N50-U50</f>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="Q50" s="86" t="s">
@@ -12592,7 +12592,7 @@
       <c r="AE50" s="44"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
@@ -12617,7 +12617,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV50" s="76">
-        <f t="shared" ref="AV50:AV72" si="29">AU50-AY50</f>
+        <f t="shared" ref="AV50:AV72" si="30">AU50-AY50</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW50" s="86" t="s">
@@ -12674,14 +12674,14 @@
         <v>12</v>
       </c>
       <c r="BW50" s="88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BX50" s="93">
         <v>1864563</v>
       </c>
     </row>
     <row r="51" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="104">
+      <c r="A51" s="105">
         <v>2022</v>
       </c>
       <c r="B51" s="85" t="s">
@@ -12691,13 +12691,13 @@
         <v>186</v>
       </c>
       <c r="D51" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="F51" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="89" t="s">
         <v>433</v>
-      </c>
-      <c r="F51" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H51" s="89" t="s">
-        <v>434</v>
       </c>
       <c r="J51" s="86" t="s">
         <v>85</v>
@@ -12715,11 +12715,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O51" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="P51" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="Q51" s="86" t="s">
@@ -12736,11 +12736,11 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="V51" s="101">
-        <f t="shared" ref="V51:V55" si="30">T51-AA51</f>
+        <f t="shared" ref="V51:V55" si="31">T51-AA51</f>
         <v>-0.67100000000000026</v>
       </c>
       <c r="W51" s="101">
-        <f t="shared" ref="W51:W55" si="31">U51-AB51</f>
+        <f t="shared" ref="W51:W55" si="32">U51-AB51</f>
         <v>0.43299999999999983</v>
       </c>
       <c r="X51" s="85" t="s">
@@ -12761,16 +12761,16 @@
       <c r="AE51" s="44"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="12">
-        <f>AA51-AT51</f>
+        <f t="shared" ref="AJ51:AK55" si="33">AA51-AT51</f>
         <v>1.6710000000000003</v>
       </c>
       <c r="AK51" s="12">
-        <f>AB51-AU51</f>
+        <f t="shared" si="33"/>
         <v>6.7000000000000171E-2</v>
       </c>
       <c r="AL51" s="56"/>
@@ -12792,7 +12792,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV51" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW51" s="86" t="s">
@@ -12845,7 +12845,7 @@
         <v>-2.633</v>
       </c>
       <c r="BQ51" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR51" s="71">
         <v>2.6199999999999999E-6</v>
@@ -12855,20 +12855,20 @@
       </c>
       <c r="BT51" s="71"/>
       <c r="BU51" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV51" s="69">
         <v>12</v>
       </c>
       <c r="BW51" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX51" s="93">
         <v>2083573</v>
       </c>
     </row>
     <row r="52" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="85" t="s">
         <v>66</v>
       </c>
@@ -12876,13 +12876,13 @@
         <v>186</v>
       </c>
       <c r="D52" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="F52" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="89" t="s">
         <v>433</v>
-      </c>
-      <c r="F52" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H52" s="89" t="s">
-        <v>434</v>
       </c>
       <c r="J52" s="86" t="s">
         <v>85</v>
@@ -12900,11 +12900,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O52" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P52" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q52" s="86" t="s">
@@ -12921,11 +12921,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V52" s="101">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-7.1000000000000618E-2</v>
       </c>
       <c r="W52" s="101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.33300000000000018</v>
       </c>
       <c r="X52" s="85" t="s">
@@ -12946,16 +12946,16 @@
       <c r="AE52" s="44"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="12">
-        <f>AA52-AT52</f>
+        <f t="shared" si="33"/>
         <v>1.3710000000000004</v>
       </c>
       <c r="AK52" s="12">
-        <f>AB52-AU52</f>
+        <f t="shared" si="33"/>
         <v>0.36699999999999999</v>
       </c>
       <c r="AL52" s="56"/>
@@ -12977,7 +12977,7 @@
         <v>-3</v>
       </c>
       <c r="AV52" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW52" s="86" t="s">
@@ -13030,7 +13030,7 @@
         <v>-2.633</v>
       </c>
       <c r="BQ52" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR52" s="71">
         <v>2.6800000000000002E-6</v>
@@ -13040,20 +13040,20 @@
       </c>
       <c r="BT52" s="71"/>
       <c r="BU52" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV52" s="69">
         <v>12</v>
       </c>
       <c r="BW52" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX52" s="93">
         <v>2083573</v>
       </c>
     </row>
     <row r="53" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="85" t="s">
         <v>66</v>
       </c>
@@ -13061,13 +13061,13 @@
         <v>186</v>
       </c>
       <c r="D53" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="F53" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="89" t="s">
         <v>433</v>
-      </c>
-      <c r="F53" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H53" s="89" t="s">
-        <v>434</v>
       </c>
       <c r="J53" s="86" t="s">
         <v>85</v>
@@ -13085,11 +13085,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O53" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P53" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q53" s="86" t="s">
@@ -13106,11 +13106,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V53" s="101">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-7.1000000000000618E-2</v>
       </c>
       <c r="W53" s="101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.33300000000000018</v>
       </c>
       <c r="X53" s="85" t="s">
@@ -13131,16 +13131,16 @@
       <c r="AE53" s="44"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="12">
-        <f>AA53-AT53</f>
+        <f t="shared" si="33"/>
         <v>1.6710000000000003</v>
       </c>
       <c r="AK53" s="12">
-        <f>AB53-AU53</f>
+        <f t="shared" si="33"/>
         <v>6.7000000000000171E-2</v>
       </c>
       <c r="AL53" s="56"/>
@@ -13162,7 +13162,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV53" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW53" s="86" t="s">
@@ -13215,7 +13215,7 @@
         <v>-2.633</v>
       </c>
       <c r="BQ53" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR53" s="71"/>
       <c r="BS53" s="71"/>
@@ -13225,14 +13225,14 @@
         <v>12</v>
       </c>
       <c r="BW53" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX53" s="27">
         <v>2083573</v>
       </c>
     </row>
     <row r="54" spans="1:77" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="104"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="85" t="s">
         <v>67</v>
       </c>
@@ -13240,13 +13240,13 @@
         <v>187</v>
       </c>
       <c r="D54" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="F54" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="89" t="s">
         <v>435</v>
-      </c>
-      <c r="F54" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H54" s="89" t="s">
-        <v>436</v>
       </c>
       <c r="J54" s="86" t="s">
         <v>85</v>
@@ -13264,11 +13264,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O54" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="P54" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="Q54" s="86" t="s">
@@ -13285,11 +13285,11 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="V54" s="101">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.66199999999999992</v>
       </c>
       <c r="W54" s="101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.44999999999999973</v>
       </c>
       <c r="X54" s="85" t="s">
@@ -13310,16 +13310,16 @@
       <c r="AE54" s="44"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
       <c r="AJ54" s="12">
-        <f>AA54-AT54</f>
+        <f t="shared" si="33"/>
         <v>1.6619999999999999</v>
       </c>
       <c r="AK54" s="12">
-        <f>AB54-AU54</f>
+        <f t="shared" si="33"/>
         <v>5.0000000000000266E-2</v>
       </c>
       <c r="AL54" s="56"/>
@@ -13341,7 +13341,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV54" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW54" s="86" t="s">
@@ -13394,7 +13394,7 @@
         <v>-2.65</v>
       </c>
       <c r="BQ54" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR54" s="71"/>
       <c r="BS54" s="71"/>
@@ -13404,14 +13404,14 @@
         <v>12</v>
       </c>
       <c r="BW54" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX54" s="94">
         <v>2083574</v>
       </c>
     </row>
     <row r="55" spans="1:77" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="85" t="s">
         <v>67</v>
       </c>
@@ -13419,13 +13419,13 @@
         <v>187</v>
       </c>
       <c r="D55" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="F55" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H55" s="89" t="s">
         <v>435</v>
-      </c>
-      <c r="F55" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H55" s="89" t="s">
-        <v>436</v>
       </c>
       <c r="J55" s="86" t="s">
         <v>85</v>
@@ -13443,11 +13443,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O55" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="P55" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="Q55" s="86" t="s">
@@ -13464,11 +13464,11 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="V55" s="101">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.66199999999999992</v>
       </c>
       <c r="W55" s="101">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.44999999999999973</v>
       </c>
       <c r="X55" s="85" t="s">
@@ -13489,16 +13489,16 @@
       <c r="AE55" s="44"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="12">
-        <f>AA55-AT55</f>
+        <f t="shared" si="33"/>
         <v>1.3620000000000001</v>
       </c>
       <c r="AK55" s="12">
-        <f>AB55-AU55</f>
+        <f t="shared" si="33"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="AL55" s="56"/>
@@ -13520,7 +13520,7 @@
         <v>-3</v>
       </c>
       <c r="AV55" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW55" s="86" t="s">
@@ -13573,7 +13573,7 @@
         <v>-2.65</v>
       </c>
       <c r="BQ55" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR55" s="71"/>
       <c r="BS55" s="71"/>
@@ -13583,14 +13583,14 @@
         <v>12</v>
       </c>
       <c r="BW55" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX55" s="94">
         <v>2083574</v>
       </c>
     </row>
     <row r="56" spans="1:77" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="104"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="85" t="s">
         <v>66</v>
       </c>
@@ -13598,15 +13598,15 @@
         <v>186</v>
       </c>
       <c r="D56" s="96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E56" s="95"/>
       <c r="F56" s="95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="95"/>
       <c r="H56" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I56" s="95"/>
       <c r="J56" s="86" t="s">
@@ -13625,11 +13625,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O56" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="P56" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="Q56" s="86" t="s">
@@ -13646,11 +13646,11 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="V56" s="101">
-        <f t="shared" ref="V56:V61" si="32">T56-AA56</f>
+        <f t="shared" ref="V56:V61" si="34">T56-AA56</f>
         <v>-0.67100000000000026</v>
       </c>
       <c r="W56" s="101">
-        <f t="shared" ref="W56:W61" si="33">U56-AB56</f>
+        <f t="shared" ref="W56:W61" si="35">U56-AB56</f>
         <v>0.43299999999999983</v>
       </c>
       <c r="X56" s="85" t="s">
@@ -13671,16 +13671,16 @@
       <c r="AE56" s="44"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="12">
-        <f t="shared" ref="AJ56:AJ61" si="34">AA56-AT56</f>
+        <f t="shared" ref="AJ56:AJ61" si="36">AA56-AT56</f>
         <v>1.3710000000000004</v>
       </c>
       <c r="AK56" s="12">
-        <f t="shared" ref="AK56:AK61" si="35">AB56-AU56</f>
+        <f t="shared" ref="AK56:AK61" si="37">AB56-AU56</f>
         <v>0.36699999999999999</v>
       </c>
       <c r="AL56" s="56"/>
@@ -13702,7 +13702,7 @@
         <v>-3</v>
       </c>
       <c r="AV56" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW56" s="86" t="s">
@@ -13755,7 +13755,7 @@
         <v>-2.633</v>
       </c>
       <c r="BQ56" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BR56" s="64"/>
       <c r="BS56" s="64"/>
@@ -13765,14 +13765,14 @@
         <v>12</v>
       </c>
       <c r="BW56" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BX56" s="93">
         <v>2083573</v>
       </c>
     </row>
     <row r="57" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A57" s="104">
+      <c r="A57" s="105">
         <v>2022</v>
       </c>
       <c r="B57" s="85" t="s">
@@ -13782,13 +13782,13 @@
         <v>188</v>
       </c>
       <c r="D57" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="89" t="s">
         <v>437</v>
-      </c>
-      <c r="F57" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H57" s="89" t="s">
-        <v>438</v>
       </c>
       <c r="J57" s="86" t="s">
         <v>85</v>
@@ -13806,11 +13806,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O57" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P57" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q57" s="86" t="s">
@@ -13827,11 +13827,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V57" s="101">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.63900000000000023</v>
       </c>
       <c r="W57" s="101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.75700000000000012</v>
       </c>
       <c r="X57" s="85" t="s">
@@ -13841,7 +13841,7 @@
         <v>30</v>
       </c>
       <c r="Z57" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA57" s="86">
         <v>-5.8390000000000004</v>
@@ -13854,16 +13854,16 @@
       <c r="AE57" s="44"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.66099999999999959</v>
       </c>
       <c r="AK57" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-5.699999999999994E-2</v>
       </c>
       <c r="AL57" s="56"/>
@@ -13885,7 +13885,7 @@
         <v>-3</v>
       </c>
       <c r="AV57" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW57" s="86" t="s">
@@ -13940,7 +13940,7 @@
         <v>-3.0569999999999999</v>
       </c>
       <c r="BQ57" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BR57" s="64">
         <v>9.3399999999999993E-5</v>
@@ -13950,21 +13950,21 @@
       </c>
       <c r="BT57" s="64"/>
       <c r="BU57" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV57" s="69">
         <v>12</v>
       </c>
       <c r="BW57" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BX57" s="27"/>
       <c r="BY57" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A58" s="104"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="85" t="s">
         <v>69</v>
       </c>
@@ -13972,13 +13972,13 @@
         <v>189</v>
       </c>
       <c r="D58" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="89" t="s">
         <v>439</v>
-      </c>
-      <c r="F58" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H58" s="89" t="s">
-        <v>440</v>
       </c>
       <c r="J58" s="86" t="s">
         <v>85</v>
@@ -13996,11 +13996,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O58" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P58" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q58" s="86" t="s">
@@ -14017,11 +14017,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V58" s="101">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.62699999999999978</v>
       </c>
       <c r="W58" s="101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="X58" s="85" t="s">
@@ -14031,7 +14031,7 @@
         <v>30</v>
       </c>
       <c r="Z58" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA58" s="86">
         <v>-5.827</v>
@@ -14044,16 +14044,16 @@
       <c r="AE58" s="44"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.67300000000000004</v>
       </c>
       <c r="AK58" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.19499999999999984</v>
       </c>
       <c r="AL58" s="56"/>
@@ -14075,7 +14075,7 @@
         <v>-3</v>
       </c>
       <c r="AV58" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW58" s="86" t="s">
@@ -14130,7 +14130,7 @@
         <v>-3.1949999999999998</v>
       </c>
       <c r="BQ58" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BR58" s="64">
         <v>6.4700000000000001E-5</v>
@@ -14140,21 +14140,21 @@
       </c>
       <c r="BT58" s="64"/>
       <c r="BU58" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV58" s="69">
         <v>12</v>
       </c>
       <c r="BW58" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BX58" s="27"/>
       <c r="BY58" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="85" t="s">
         <v>70</v>
       </c>
@@ -14162,13 +14162,13 @@
         <v>190</v>
       </c>
       <c r="D59" s="96" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="89" t="s">
         <v>444</v>
-      </c>
-      <c r="F59" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="89" t="s">
-        <v>445</v>
       </c>
       <c r="J59" s="86" t="s">
         <v>85</v>
@@ -14186,11 +14186,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O59" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P59" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q59" s="86" t="s">
@@ -14207,11 +14207,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V59" s="101">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69099999999999984</v>
       </c>
       <c r="W59" s="101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.94700000000000006</v>
       </c>
       <c r="X59" s="85" t="s">
@@ -14221,7 +14221,7 @@
         <v>30</v>
       </c>
       <c r="Z59" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA59" s="86">
         <v>-5.891</v>
@@ -14234,16 +14234,16 @@
       <c r="AE59" s="44"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.60899999999999999</v>
       </c>
       <c r="AK59" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.24699999999999989</v>
       </c>
       <c r="AL59" s="56"/>
@@ -14265,7 +14265,7 @@
         <v>-3</v>
       </c>
       <c r="AV59" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW59" s="86" t="s">
@@ -14320,7 +14320,7 @@
         <v>-3.2469999999999999</v>
       </c>
       <c r="BQ59" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BR59" s="64">
         <v>1.55E-4</v>
@@ -14330,21 +14330,21 @@
       </c>
       <c r="BT59" s="64"/>
       <c r="BU59" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV59" s="69">
         <v>12</v>
       </c>
       <c r="BW59" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BX59" s="27"/>
       <c r="BY59" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="85" t="s">
         <v>71</v>
       </c>
@@ -14352,15 +14352,15 @@
         <v>191</v>
       </c>
       <c r="D60" s="96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E60" s="95"/>
       <c r="F60" s="95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G60" s="95"/>
       <c r="H60" s="89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I60" s="95"/>
       <c r="J60" s="86" t="s">
@@ -14379,11 +14379,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O60" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P60" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q60" s="86" t="s">
@@ -14400,11 +14400,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V60" s="101">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.7240000000000002</v>
       </c>
       <c r="W60" s="101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.88500000000000023</v>
       </c>
       <c r="X60" s="85" t="s">
@@ -14414,7 +14414,7 @@
         <v>30</v>
       </c>
       <c r="Z60" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA60" s="86">
         <v>-5.9240000000000004</v>
@@ -14427,16 +14427,16 @@
       <c r="AE60" s="44"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.57599999999999962</v>
       </c>
       <c r="AK60" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.18500000000000005</v>
       </c>
       <c r="AL60" s="56"/>
@@ -14458,7 +14458,7 @@
         <v>-3</v>
       </c>
       <c r="AV60" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW60" s="86" t="s">
@@ -14513,7 +14513,7 @@
         <v>-3.1850000000000001</v>
       </c>
       <c r="BQ60" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BR60" s="64">
         <v>8.3599999999999999E-5</v>
@@ -14523,17 +14523,17 @@
       </c>
       <c r="BT60" s="64"/>
       <c r="BU60" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV60" s="69">
         <v>12</v>
       </c>
       <c r="BW60" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BX60" s="82"/>
       <c r="BY60" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:77" ht="24" x14ac:dyDescent="0.25">
@@ -14547,13 +14547,13 @@
         <v>192</v>
       </c>
       <c r="D61" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="F61" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="89" t="s">
         <v>446</v>
-      </c>
-      <c r="F61" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H61" s="89" t="s">
-        <v>447</v>
       </c>
       <c r="J61" s="86" t="s">
         <v>85</v>
@@ -14571,11 +14571,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O61" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P61" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q61" s="86" t="s">
@@ -14592,11 +14592,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V61" s="101">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="W61" s="101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.5</v>
       </c>
       <c r="X61" s="85" t="s">
@@ -14606,7 +14606,7 @@
         <v>30</v>
       </c>
       <c r="Z61" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA61" s="86">
         <v>-6</v>
@@ -14619,16 +14619,16 @@
       <c r="AE61" s="44"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="AK61" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1.7999999999999998</v>
       </c>
       <c r="AL61" s="56"/>
@@ -14650,7 +14650,7 @@
         <v>-3</v>
       </c>
       <c r="AV61" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW61" s="86" t="s">
@@ -14703,7 +14703,7 @@
         <v>-4.8</v>
       </c>
       <c r="BQ61" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BR61" s="64">
         <v>4.9399999999999995E-7</v>
@@ -14713,21 +14713,21 @@
       </c>
       <c r="BT61" s="64"/>
       <c r="BU61" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BV61" s="69">
         <v>12</v>
       </c>
       <c r="BW61" s="88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BX61" s="27"/>
       <c r="BY61" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:77" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="104">
+      <c r="A62" s="105">
         <v>2022</v>
       </c>
       <c r="B62" s="85" t="s">
@@ -14737,13 +14737,13 @@
         <v>193</v>
       </c>
       <c r="D62" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="F62" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="89" t="s">
         <v>448</v>
-      </c>
-      <c r="F62" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H62" s="89" t="s">
-        <v>449</v>
       </c>
       <c r="J62" s="86" t="s">
         <v>85</v>
@@ -14761,11 +14761,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O62" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P62" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q62" s="86" t="s">
@@ -14790,7 +14790,7 @@
         <v>30</v>
       </c>
       <c r="Z62" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA62" s="86"/>
       <c r="AB62" s="86"/>
@@ -14799,7 +14799,7 @@
       <c r="AE62" s="44"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
@@ -14824,7 +14824,7 @@
         <v>-3</v>
       </c>
       <c r="AV62" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW62" s="86" t="s">
@@ -14881,15 +14881,15 @@
         <v>12</v>
       </c>
       <c r="BW62" s="88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BX62" s="27"/>
       <c r="BY62" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:77" ht="24" x14ac:dyDescent="0.25">
-      <c r="A63" s="104"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="85" t="s">
         <v>74</v>
       </c>
@@ -14897,13 +14897,13 @@
         <v>194</v>
       </c>
       <c r="D63" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="F63" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="89" t="s">
         <v>450</v>
-      </c>
-      <c r="F63" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H63" s="89" t="s">
-        <v>451</v>
       </c>
       <c r="J63" s="86" t="s">
         <v>85</v>
@@ -14921,11 +14921,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O63" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P63" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q63" s="86" t="s">
@@ -14950,7 +14950,7 @@
         <v>30</v>
       </c>
       <c r="Z63" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA63" s="86"/>
       <c r="AB63" s="86"/>
@@ -14959,7 +14959,7 @@
       <c r="AE63" s="44"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
@@ -14984,7 +14984,7 @@
         <v>-3</v>
       </c>
       <c r="AV63" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW63" s="86" t="s">
@@ -15041,15 +15041,15 @@
         <v>12</v>
       </c>
       <c r="BW63" s="88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BX63" s="27"/>
       <c r="BY63" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:77" ht="24" x14ac:dyDescent="0.25">
-      <c r="A64" s="104"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="85" t="s">
         <v>75</v>
       </c>
@@ -15057,13 +15057,13 @@
         <v>195</v>
       </c>
       <c r="D64" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F64" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="89" t="s">
         <v>452</v>
-      </c>
-      <c r="F64" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H64" s="89" t="s">
-        <v>453</v>
       </c>
       <c r="J64" s="86" t="s">
         <v>85</v>
@@ -15081,11 +15081,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O64" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P64" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q64" s="86" t="s">
@@ -15110,7 +15110,7 @@
         <v>30</v>
       </c>
       <c r="Z64" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA64" s="86"/>
       <c r="AB64" s="86"/>
@@ -15119,7 +15119,7 @@
       <c r="AE64" s="44"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
@@ -15144,7 +15144,7 @@
         <v>-3</v>
       </c>
       <c r="AV64" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="AW64" s="86" t="s">
@@ -15201,15 +15201,15 @@
         <v>12</v>
       </c>
       <c r="BW64" s="88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BX64" s="27"/>
       <c r="BY64" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:77" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="104">
+      <c r="A65" s="105">
         <v>2024</v>
       </c>
       <c r="B65" s="85" t="s">
@@ -15219,13 +15219,13 @@
         <v>196</v>
       </c>
       <c r="D65" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="F65" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="89" t="s">
         <v>454</v>
-      </c>
-      <c r="F65" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H65" s="89" t="s">
-        <v>455</v>
       </c>
       <c r="J65" s="86" t="s">
         <v>85</v>
@@ -15243,11 +15243,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O65" s="102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P65" s="102">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q65" s="86" t="s">
@@ -15272,7 +15272,7 @@
         <v>26</v>
       </c>
       <c r="Z65" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA65" s="86"/>
       <c r="AB65" s="86"/>
@@ -15281,7 +15281,7 @@
       <c r="AE65" s="44"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
@@ -15306,7 +15306,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV65" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW65" s="86" t="s">
@@ -15363,15 +15363,15 @@
         <v>12</v>
       </c>
       <c r="BW65" s="88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BX65" s="27"/>
       <c r="BY65" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:77" ht="24" x14ac:dyDescent="0.25">
-      <c r="A66" s="104"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="85" t="s">
         <v>77</v>
       </c>
@@ -15379,13 +15379,13 @@
         <v>197</v>
       </c>
       <c r="D66" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="F66" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="89" t="s">
         <v>456</v>
-      </c>
-      <c r="F66" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H66" s="89" t="s">
-        <v>457</v>
       </c>
       <c r="J66" s="86" t="s">
         <v>85</v>
@@ -15403,11 +15403,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O66" s="102">
-        <f t="shared" ref="O66:O71" si="36">M66-T66</f>
+        <f t="shared" ref="O66:O71" si="38">M66-T66</f>
         <v>0</v>
       </c>
       <c r="P66" s="102">
-        <f t="shared" ref="P66:P71" si="37">N66-U66</f>
+        <f t="shared" ref="P66:P71" si="39">N66-U66</f>
         <v>0</v>
       </c>
       <c r="Q66" s="86" t="s">
@@ -15432,7 +15432,7 @@
         <v>26</v>
       </c>
       <c r="Z66" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA66" s="86"/>
       <c r="AB66" s="86"/>
@@ -15441,7 +15441,7 @@
       <c r="AE66" s="44"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
@@ -15466,7 +15466,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV66" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW66" s="86" t="s">
@@ -15523,15 +15523,15 @@
         <v>12</v>
       </c>
       <c r="BW66" s="88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BX66" s="27"/>
       <c r="BY66" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="104">
+      <c r="A67" s="105">
         <v>2024</v>
       </c>
       <c r="B67" s="85" t="s">
@@ -15541,13 +15541,13 @@
         <v>198</v>
       </c>
       <c r="D67" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="F67" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="89" t="s">
         <v>458</v>
-      </c>
-      <c r="F67" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H67" s="89" t="s">
-        <v>459</v>
       </c>
       <c r="J67" s="86" t="s">
         <v>85</v>
@@ -15565,11 +15565,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O67" s="102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P67" s="102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q67" s="86" t="s">
@@ -15594,7 +15594,7 @@
         <v>30</v>
       </c>
       <c r="Z67" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA67" s="86"/>
       <c r="AB67" s="86"/>
@@ -15603,7 +15603,7 @@
       <c r="AE67" s="44"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
@@ -15628,7 +15628,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV67" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW67" s="86" t="s">
@@ -15689,11 +15689,11 @@
       </c>
       <c r="BX67" s="27"/>
       <c r="BY67" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="104"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="85" t="s">
         <v>81</v>
       </c>
@@ -15701,13 +15701,13 @@
         <v>199</v>
       </c>
       <c r="D68" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="F68" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="89" t="s">
         <v>460</v>
-      </c>
-      <c r="F68" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H68" s="89" t="s">
-        <v>461</v>
       </c>
       <c r="J68" s="86" t="s">
         <v>85</v>
@@ -15725,11 +15725,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O68" s="102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P68" s="102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q68" s="86" t="s">
@@ -15754,7 +15754,7 @@
         <v>8.5</v>
       </c>
       <c r="Z68" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA68" s="86"/>
       <c r="AB68" s="86"/>
@@ -15763,7 +15763,7 @@
       <c r="AE68" s="44"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
@@ -15788,7 +15788,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV68" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW68" s="86" t="s">
@@ -15845,11 +15845,11 @@
       <c r="BW68" s="88"/>
       <c r="BX68" s="27"/>
       <c r="BY68" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A69" s="104"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="85" t="s">
         <v>82</v>
       </c>
@@ -15857,22 +15857,22 @@
         <v>200</v>
       </c>
       <c r="D69" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="89" t="s">
         <v>458</v>
       </c>
-      <c r="E69" s="96" t="s">
+      <c r="I69" s="89" t="s">
         <v>460</v>
-      </c>
-      <c r="F69" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H69" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="I69" s="89" t="s">
-        <v>461</v>
       </c>
       <c r="J69" s="86" t="s">
         <v>85</v>
@@ -15890,11 +15890,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O69" s="102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P69" s="102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q69" s="86" t="s">
@@ -15919,7 +15919,7 @@
         <v>22.8</v>
       </c>
       <c r="Z69" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA69" s="86"/>
       <c r="AB69" s="86"/>
@@ -15928,7 +15928,7 @@
       <c r="AE69" s="44"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
@@ -15953,7 +15953,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV69" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW69" s="86" t="s">
@@ -16012,11 +16012,11 @@
       <c r="BW69" s="88"/>
       <c r="BX69" s="27"/>
       <c r="BY69" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:77" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="104"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="85" t="s">
         <v>83</v>
       </c>
@@ -16024,22 +16024,22 @@
         <v>201</v>
       </c>
       <c r="D70" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="E70" s="96" t="s">
+        <v>459</v>
+      </c>
+      <c r="F70" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="89" t="s">
         <v>458</v>
       </c>
-      <c r="E70" s="96" t="s">
+      <c r="I70" s="89" t="s">
         <v>460</v>
-      </c>
-      <c r="F70" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H70" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>461</v>
       </c>
       <c r="J70" s="86" t="s">
         <v>85</v>
@@ -16057,11 +16057,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O70" s="102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P70" s="102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q70" s="86" t="s">
@@ -16086,7 +16086,7 @@
         <v>22.8</v>
       </c>
       <c r="Z70" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA70" s="86"/>
       <c r="AB70" s="86"/>
@@ -16095,7 +16095,7 @@
       <c r="AE70" s="44"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
@@ -16120,7 +16120,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV70" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW70" s="86" t="s">
@@ -16177,7 +16177,7 @@
       <c r="BW70" s="88"/>
       <c r="BX70" s="82"/>
       <c r="BY70" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:77" ht="24" x14ac:dyDescent="0.25">
@@ -16191,13 +16191,13 @@
         <v>202</v>
       </c>
       <c r="D71" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H71" s="95" t="s">
         <v>462</v>
-      </c>
-      <c r="F71" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H71" s="95" t="s">
-        <v>463</v>
       </c>
       <c r="J71" s="86" t="s">
         <v>85</v>
@@ -16215,11 +16215,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="O71" s="102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P71" s="102">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q71" s="86" t="s">
@@ -16236,11 +16236,11 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="V71" s="101">
-        <f t="shared" ref="V71:V72" si="38">T71-AA71</f>
+        <f t="shared" ref="V71:V72" si="40">T71-AA71</f>
         <v>0.46999999999999975</v>
       </c>
       <c r="W71" s="101">
-        <f t="shared" ref="W71:W72" si="39">U71-AB71</f>
+        <f t="shared" ref="W71:W72" si="41">U71-AB71</f>
         <v>0.33000000000000007</v>
       </c>
       <c r="X71" s="85" t="s">
@@ -16250,7 +16250,7 @@
         <v>24</v>
       </c>
       <c r="Z71" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA71" s="86">
         <v>-5.67</v>
@@ -16263,16 +16263,16 @@
       <c r="AE71" s="44"/>
       <c r="AF71" s="3"/>
       <c r="AG71" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
       <c r="AJ71" s="12">
-        <f t="shared" ref="AJ71:AJ72" si="40">AA71-AT71</f>
+        <f t="shared" ref="AJ71:AJ72" si="42">AA71-AT71</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="AK71" s="12">
-        <f t="shared" ref="AK71:AK72" si="41">AB71-AU71</f>
+        <f t="shared" ref="AK71:AK72" si="43">AB71-AU71</f>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="AL71" s="56"/>
@@ -16294,7 +16294,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV71" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW71" s="86" t="s">
@@ -16349,7 +16349,7 @@
         <v>-2.63</v>
       </c>
       <c r="BQ71" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BR71" s="64"/>
       <c r="BS71" s="64"/>
@@ -16359,11 +16359,11 @@
         <v>12</v>
       </c>
       <c r="BW71" s="88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BX71" s="27"/>
       <c r="BY71" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:77" ht="24" x14ac:dyDescent="0.25">
@@ -16377,13 +16377,13 @@
         <v>202</v>
       </c>
       <c r="D72" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="F72" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="95" t="s">
         <v>462</v>
-      </c>
-      <c r="F72" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H72" s="95" t="s">
-        <v>463</v>
       </c>
       <c r="J72" s="86" t="s">
         <v>85</v>
@@ -16422,11 +16422,11 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="V72" s="101">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-0.12999999999999989</v>
       </c>
       <c r="W72" s="101">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="X72" s="85" t="s">
@@ -16436,7 +16436,7 @@
         <v>24</v>
       </c>
       <c r="Z72" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA72" s="86">
         <v>-5.67</v>
@@ -16449,16 +16449,16 @@
       <c r="AE72" s="44"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
       <c r="AJ72" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="AK72" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="AL72" s="56"/>
@@ -16480,7 +16480,7 @@
         <v>-2.7</v>
       </c>
       <c r="AV72" s="76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AW72" s="86" t="s">
@@ -16535,7 +16535,7 @@
         <v>-2.63</v>
       </c>
       <c r="BQ72" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BR72" s="64"/>
       <c r="BS72" s="64"/>
@@ -16545,11 +16545,11 @@
         <v>12</v>
       </c>
       <c r="BW72" s="88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BX72" s="27"/>
       <c r="BY72" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:77" x14ac:dyDescent="0.25">
@@ -16605,74 +16605,74 @@
       <c r="BD73" s="44"/>
       <c r="BE73" s="44"/>
       <c r="BF73" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BG73" s="27">
-        <f t="shared" ref="BG73:BX73" si="42">COUNT(BG2:BG72)</f>
+        <f t="shared" ref="BG73:BX73" si="44">COUNT(BG2:BG72)</f>
         <v>4</v>
       </c>
       <c r="BH73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>55</v>
       </c>
       <c r="BI73" s="27">
-        <f t="shared" si="42"/>
-        <v>40</v>
+        <f t="shared" si="44"/>
+        <v>41</v>
       </c>
       <c r="BJ73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="BK73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="BL73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>66</v>
       </c>
       <c r="BM73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>38</v>
       </c>
       <c r="BN73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>45</v>
       </c>
       <c r="BO73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="BP73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="BQ73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BR73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="BS73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="BT73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="BU73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BV73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>32</v>
       </c>
       <c r="BX73" s="27">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
       <c r="BY73" s="27">
@@ -16732,79 +16732,79 @@
       <c r="BD74" s="44"/>
       <c r="BE74" s="44"/>
       <c r="BF74" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BG74" s="84">
         <f>BG73/72</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="BH74" s="84">
-        <f t="shared" ref="BH74:BV74" si="43">BH73/72</f>
+        <f t="shared" ref="BH74:BV74" si="45">BH73/72</f>
         <v>0.76388888888888884</v>
       </c>
       <c r="BI74" s="84">
-        <f t="shared" si="43"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="45"/>
+        <v>0.56944444444444442</v>
       </c>
       <c r="BJ74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.18055555555555555</v>
       </c>
       <c r="BK74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.25</v>
       </c>
       <c r="BL74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="BM74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="BN74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.625</v>
       </c>
       <c r="BO74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="BP74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="BQ74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BR74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="BS74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="BT74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="BU74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BV74" s="84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="BW74" s="84"/>
       <c r="BX74" s="84">
-        <f t="shared" ref="BX74:BY74" si="44">BX73/72</f>
+        <f t="shared" ref="BX74:BY74" si="46">BX73/72</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="BY74" s="84">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -16881,6 +16881,41 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="BI25:BI26"/>
+    <mergeCell ref="BL25:BL26"/>
+    <mergeCell ref="BM25:BM26"/>
+    <mergeCell ref="BN25:BN26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="BM9:BM11"/>
+    <mergeCell ref="BN9:BN11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BN12:BN13"/>
     <mergeCell ref="BM4:BM5"/>
     <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="A5:A8"/>
@@ -16893,41 +16928,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="BM6:BM8"/>
     <mergeCell ref="BN6:BN8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="BM9:BM11"/>
-    <mergeCell ref="BN9:BN11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="BN12:BN13"/>
-    <mergeCell ref="BM25:BM26"/>
-    <mergeCell ref="BN25:BN26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="BI25:BI26"/>
-    <mergeCell ref="BL25:BL26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G18" r:id="rId1" display="https://www.chemsrc.com/en/baike/77959.html"/>
@@ -16957,10 +16957,10 @@
         <v>114</v>
       </c>
       <c r="B1" s="103" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" t="s">
         <v>474</v>
-      </c>
-      <c r="C1" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -18605,18 +18605,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="W24:W25"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="W5:W8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="W21:W23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="W24:W25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18646,10 +18646,10 @@
         <v>226</v>
       </c>
       <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
         <v>235</v>
-      </c>
-      <c r="F1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -18753,7 +18753,7 @@
         <v>-3</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -18767,7 +18767,7 @@
         <v>-2.7</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -18781,7 +18781,7 @@
         <v>-5.42</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18795,7 +18795,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -18809,7 +18809,7 @@
         <v>-2.4</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -18817,7 +18817,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -18831,7 +18831,7 @@
         <v>-2.9</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -18845,7 +18845,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -18853,12 +18853,12 @@
         <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20">
         <v>-5.5</v>
@@ -18867,12 +18867,12 @@
         <v>-2.4</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21">
         <v>-5.4</v>
@@ -18894,7 +18894,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23">
         <v>-5.2</v>
@@ -18903,7 +18903,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -18917,7 +18917,7 @@
         <v>-2.8</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -18931,7 +18931,7 @@
         <v>-2</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -18945,7 +18945,7 @@
         <v>-3.5</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -18959,7 +18959,7 @@
         <v>-2.7</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -20054,12 +20054,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="A8:A11"/>
@@ -20072,6 +20066,12 @@
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="U16:U17"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
